--- a/Information/Plan.xlsx
+++ b/Information/Plan.xlsx
@@ -377,63 +377,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -749,19 +777,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -778,60 +806,60 @@
       <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -839,13 +867,13 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -854,12 +882,12 @@
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -868,24 +896,24 @@
       <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -893,131 +921,126 @@
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="24"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="24"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="24"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="F6:F11"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E8"/>
@@ -1025,6 +1048,11 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="F6:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
